--- a/ManualTestCase.xlsx
+++ b/ManualTestCase.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Test case" sheetId="1" r:id="rId2"/>
     <sheet name="Image" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test case'!$A$1:$J$60</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="243">
   <si>
     <t>Login Page</t>
   </si>
@@ -191,11 +194,6 @@
     <t>Verify the login page allows to log in simultaneously with different credentials in a different browser.</t>
   </si>
   <si>
-    <t>1. Navigate to login page on chrome
-2. Navigate to login page on Firefox
-3. Input valid email, password and click Login on 2 browser</t>
-  </si>
-  <si>
     <t>[To Be Determine] -- Need to get requirement</t>
   </si>
   <si>
@@ -347,9 +345,6 @@
     <t>Verify that portal parent page should be re-loaded and show current data when click [parent Portal] link</t>
   </si>
   <si>
-    <t>1. Verify UI of page and css of link when mouse over/click</t>
-  </si>
-  <si>
     <t>1. Click [parent Portal] link</t>
   </si>
   <si>
@@ -363,9 +358,6 @@
   </si>
   <si>
     <t>System should not allow you to enter into the system once you log out.</t>
-  </si>
-  <si>
-    <t>Verify that the Filter pop-up should be displayed when Click Filter button</t>
   </si>
   <si>
     <t>Filter pop-up</t>
@@ -407,12 +399,6 @@
   </si>
   <si>
     <t>Verify that the data should be filtered correct when added a exist data on per field</t>
-  </si>
-  <si>
-    <t>The data should be filtered  and displayed correct on list</t>
-  </si>
-  <si>
-    <t>Verify that the message/comment should be displayed on list when added a un-exist data on per field</t>
   </si>
   <si>
     <t>Verify that the data should be filtered correct when added data to many fields</t>
@@ -452,21 +438,6 @@
 Case 3: Input  not exist data to Student First Name
 Case 4: Input  not exist data to Student Last Name
 3. Click Apply Filter button</t>
-  </si>
-  <si>
-    <t>1. A filter box should be display above list 
-2. The message/comment should be displayed on list and content of comment is as expectation</t>
-  </si>
-  <si>
-    <t>1. A filter box should be display above list 
-2. The data should be filtered  and displayed correct on list</t>
-  </si>
-  <si>
-    <t>1. The filter boxes should be display above list 
-2. The data should be filtered  and displayed correct on list</t>
-  </si>
-  <si>
-    <t>The data should be cleared or return the default</t>
   </si>
   <si>
     <t>Veirfy that the filte pop-up should be hide when press esc</t>
@@ -630,14 +601,6 @@
     <t xml:space="preserve">The Notes textbox is displayed </t>
   </si>
   <si>
-    <t>Veirfy that Notes data should be saved when Click save</t>
-  </si>
-  <si>
-    <t>1. Click on notes cell of list
-2. Input data 
-3. Click Save button</t>
-  </si>
-  <si>
     <t>The data should be shown correct on list</t>
   </si>
   <si>
@@ -665,21 +628,6 @@
 2. repeat step 1 with all items</t>
   </si>
   <si>
-    <t>Verify that the data should be shown correct when Click number of page</t>
-  </si>
-  <si>
-    <t>Verify that the data should be shown correct when Click &gt; icon</t>
-  </si>
-  <si>
-    <t>Verify that the data should be shown correct when Click &gt;&gt; icon</t>
-  </si>
-  <si>
-    <t>Verify that the data should be shown correct when Click &lt; icon</t>
-  </si>
-  <si>
-    <t>Verify that the data should be shown correct when Click &lt;&lt; icon</t>
-  </si>
-  <si>
     <t>1. Click &gt; icon
 2. repeat step 1 with all pages</t>
   </si>
@@ -721,39 +669,14 @@
     <t>TC_PP16</t>
   </si>
   <si>
-    <t>TC_PP17</t>
-  </si>
-  <si>
-    <t>TC_PP18</t>
-  </si>
-  <si>
-    <t>TC_PP19</t>
-  </si>
-  <si>
-    <t>TC_PP20</t>
-  </si>
-  <si>
-    <t>TC_PP21</t>
-  </si>
-  <si>
-    <t>TC_PP22</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
     <t>Total Test case</t>
-  </si>
-  <si>
-    <t>Vefify that paging number is displayed correct on list</t>
   </si>
   <si>
     <t>Login successfully to the system
 System has a lot of data</t>
-  </si>
-  <si>
-    <t>1. Paging is hiden when the data is sort or doesn't have data
-2. Paging is shown correctly when system has a lot of data</t>
   </si>
   <si>
     <t xml:space="preserve">Case 1,5,7,9: The data should be sorted z-a
@@ -763,11 +686,6 @@
 </t>
   </si>
   <si>
-    <t>Sort function on case 3,11,4,12
-Enhencement: 
-+ StudentID, User should be added sort function</t>
-  </si>
-  <si>
     <t>1. Click Filter button
 2. Select/ Add data to many fields 
 3. Click Apply Filter button
@@ -782,6 +700,195 @@
 Case 1 :  Input  a long string to Email and Click Login (max length of control)
 Case 2:   Input  a long string to Password and Click Login (max length of control)
 Case 3:   Input  a long string to Email, Password and Click Login ( max length of controll)</t>
+  </si>
+  <si>
+    <t>Verify that the data should be shown correct when click number of page</t>
+  </si>
+  <si>
+    <t>Verify that the data should be shown correct when click &gt; icon</t>
+  </si>
+  <si>
+    <t>Verify that the Filter pop-up should be displayed when click Filter button</t>
+  </si>
+  <si>
+    <t>Veirfy that Notes data should be saved when click save</t>
+  </si>
+  <si>
+    <t>Verify that the data should be shown correct when click &gt;&gt; icon</t>
+  </si>
+  <si>
+    <t>Verify that the data should be shown correct when click &lt; icon</t>
+  </si>
+  <si>
+    <t>Verify that the data should be shown correct when click &lt;&lt; icon</t>
+  </si>
+  <si>
+    <t>1. Navigate to login page on chrome
+2. Navigate to login page on Firefox
+3. Input valid email, password and Click Login on 2 browser</t>
+  </si>
+  <si>
+    <t>1. Verify UI of page and css of link when mouse over/Click</t>
+  </si>
+  <si>
+    <t>Vefify that paging number is displayed correct on bottom of list</t>
+  </si>
+  <si>
+    <t>1. Paging is hiden when the data is sort or doesn't have data
+2. Paging number is shown correctly when system has a lot of data</t>
+  </si>
+  <si>
+    <t>System doesn't show anything</t>
+  </si>
+  <si>
+    <t>Verify that system will return to login page when click sign out</t>
+  </si>
+  <si>
+    <t>TC_PP_P1</t>
+  </si>
+  <si>
+    <t>TC_PP_P2</t>
+  </si>
+  <si>
+    <t>TC_PP_P3</t>
+  </si>
+  <si>
+    <t>TC_PP_P4</t>
+  </si>
+  <si>
+    <t>TC_PP_P5</t>
+  </si>
+  <si>
+    <t>TC_PP_P6</t>
+  </si>
+  <si>
+    <t>TC_PP_P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to [Admin] in top-right
+2. Select "Sign Out"
+3. return to </t>
+  </si>
+  <si>
+    <t>System will return to login page and user can not return to Portal Parent Page</t>
+  </si>
+  <si>
+    <t>Current, System will return to the login page but because we can log in with blank data so this case run incorrectly</t>
+  </si>
+  <si>
+    <t>Verify that the message/comment should be displayed on the list when added an un-exist data on per field</t>
+  </si>
+  <si>
+    <t>The data will not be changed</t>
+  </si>
+  <si>
+    <t>Verify that the filter data should be displayed after apply filter function</t>
+  </si>
+  <si>
+    <t>1. Click Filter button
+2. Select/ Add data to many fields 
+3. Click Apply Filter button
+4. Click Filter button again</t>
+  </si>
+  <si>
+    <t>All filter data of previous filters should be displayed on filter popup</t>
+  </si>
+  <si>
+    <t>Blocked by TC_PP_F4</t>
+  </si>
+  <si>
+    <t>Verify that the data should be displayed correctly when removing filter data</t>
+  </si>
+  <si>
+    <t>1. Click Filter button
+2. Select/ Add data to many fields 
+3. Click Apply Filter button
+4. Click Filter button again
+5. Remove one/many filter data
+6. Click Apply Filter button</t>
+  </si>
+  <si>
+    <t>Verify that the data should be displayed correctly when changing filter data</t>
+  </si>
+  <si>
+    <t>1. Click Filter button
+2. Select/ Add data to many fields 
+3. Click Apply Filter button
+4. Click Filter button again
+5. change one/many filter data
+6. Click Apply Filter button</t>
+  </si>
+  <si>
+    <t>1.The filter boxes should be displayed correctly above list 
+2. The data should be displayed correctly on list</t>
+  </si>
+  <si>
+    <t>1.The filter boxes should NOT be displayed above list 
+2. The data should be displayed correctly on list</t>
+  </si>
+  <si>
+    <t>1. A filter box should be displayed above list 
+2. The data should be filtered  and displayed correct on list</t>
+  </si>
+  <si>
+    <t>1. A filter box should be displayed above list 
+2. The message/comment should be displayed on list and content of comment is as expectation</t>
+  </si>
+  <si>
+    <t>1. The filter boxes should be displayed above list 
+2. The data should be filtered  and displayed correct on list</t>
+  </si>
+  <si>
+    <t>All filter data of previous filters should be displayed on filter popup (all data is applied filter)</t>
+  </si>
+  <si>
+    <t>TC_PP_F13</t>
+  </si>
+  <si>
+    <t>TC_PP_F14</t>
+  </si>
+  <si>
+    <t>TC_PP_F15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sort function on case 3,11,4,12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enhencement: 
++ StudentID, User should be added sort function</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click on notes cell of list
+2. Input data 
+3. Click Save button
+Notes: normal data, hackcode, html, special data etc</t>
+  </si>
+  <si>
+    <t>Veirfy that Notes data should NOT be saved when doesn't click save</t>
+  </si>
+  <si>
+    <t>1. Click on notes cell of list
+2. Input data 
+3. 
+Case 1: Move over list and Click
+Case 2: Press ESC</t>
+  </si>
+  <si>
+    <t>Blocked by TC_PP14</t>
+  </si>
+  <si>
+    <t>The Notes data should NOT be saved and doesn't display on list</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1012,12 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1028,6 +1129,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1168,882 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Status</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$E$8:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pending</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1219107792"/>
+        <c:axId val="1539251024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1219107792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1539251024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1539251024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219107792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1546,7 +2534,7 @@
   <dimension ref="D6:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1556,23 +2544,23 @@
   <sheetData>
     <row r="6" spans="4:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D7" s="8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E7" s="9">
-        <f>COUNTA('Test case'!A1:A100)-3</f>
-        <v>50</v>
+        <f>COUNTA('Test case'!A1:A104)-3</f>
+        <v>55</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1582,29 +2570,29 @@
         <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D9" s="18"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="9">
-        <f>COUNTIF('Test case'!$H$3:$H$100, Summary!E8)</f>
+        <f>COUNTIF('Test case'!$H$3:$H$104, Summary!E8)</f>
         <v>16</v>
       </c>
       <c r="F9" s="14">
-        <f>COUNTIF('Test case'!$H$3:$H$100, Summary!F8)</f>
-        <v>13</v>
+        <f>COUNTIF('Test case'!$H$3:$H$104, Summary!F8)</f>
+        <v>9</v>
       </c>
       <c r="G9" s="9">
-        <f>COUNTIF('Test case'!$H$3:$H$100, Summary!G8)</f>
+        <f>COUNTIF('Test case'!$H$3:$H$104, Summary!G8)</f>
         <v>16</v>
       </c>
       <c r="H9" s="9">
-        <f>COUNTIF('Test case'!$H$3:$H$100, Summary!H8)</f>
-        <v>5</v>
+        <f>COUNTIF('Test case'!$H$3:$H$104, Summary!H8)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1612,16 +2600,17 @@
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1632,9 +2621,9 @@
     <col min="4" max="4" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1680,9 +2669,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -1701,10 +2690,10 @@
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1713,7 +2702,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -1724,8 +2713,8 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1745,13 +2734,13 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1771,7 +2760,7 @@
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1786,16 +2775,16 @@
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1809,21 +2798,21 @@
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -1837,16 +2826,16 @@
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -1860,16 +2849,16 @@
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>46</v>
@@ -1878,1059 +2867,1199 @@
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>50</v>
+      <c r="H13" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>50</v>
+      <c r="H15" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>50</v>
+      <c r="H16" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>50</v>
+      <c r="H17" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>80</v>
+      <c r="I22" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="21" t="s">
+      <c r="H27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>50</v>
+      <c r="H28" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="21" t="s">
+      <c r="G31" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>111</v>
+      <c r="I32" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="21" t="s">
+      <c r="G33" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>50</v>
+      <c r="H40" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>134</v>
+        <v>22</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G47" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G49" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="H50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>50</v>
+      <c r="H51" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="21" t="s">
-        <v>50</v>
+      <c r="H53" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="21" t="s">
-        <v>50</v>
+      <c r="H54" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>50</v>
+      <c r="H55" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2953,17 +4082,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
